--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020321-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020321-2.xlsx_with_dialog_acts.xlsx
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4663,12 +4663,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4701,12 +4701,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4739,12 +4739,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5803,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6647,12 +6647,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6837,12 +6837,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7597,12 +7597,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8243,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8357,12 +8357,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8585,12 +8585,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9155,12 +9155,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9193,12 +9193,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11751,12 +11751,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11827,12 +11827,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11941,12 +11941,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12359,12 +12359,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13477,12 +13477,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13747,12 +13747,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14093,12 +14093,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14131,12 +14131,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14245,12 +14245,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14435,12 +14435,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14473,12 +14473,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15743,12 +15743,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16051,12 +16051,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
